--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.026618</v>
+        <v>0.03947</v>
       </c>
       <c r="H2">
-        <v>0.07985399999999999</v>
+        <v>0.11841</v>
       </c>
       <c r="I2">
-        <v>0.01885126588703216</v>
+        <v>0.02464674251283125</v>
       </c>
       <c r="J2">
-        <v>0.01885126588703216</v>
+        <v>0.02464674251283126</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0007185174193333333</v>
+        <v>0.001065440023333333</v>
       </c>
       <c r="R2">
-        <v>0.006466656773999999</v>
+        <v>0.009588960210000001</v>
       </c>
       <c r="S2">
-        <v>0.01885126588703216</v>
+        <v>0.02464674251283125</v>
       </c>
       <c r="T2">
-        <v>0.01885126588703216</v>
+        <v>0.02464674251283126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>2.441829</v>
       </c>
       <c r="I3">
-        <v>0.5764466116871522</v>
+        <v>0.5082605406922069</v>
       </c>
       <c r="J3">
-        <v>0.5764466116871523</v>
+        <v>0.5082605406922069</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -638,10 +638,10 @@
         <v>0.197741754249</v>
       </c>
       <c r="S3">
-        <v>0.5764466116871522</v>
+        <v>0.5082605406922069</v>
       </c>
       <c r="T3">
-        <v>0.5764466116871523</v>
+        <v>0.5082605406922069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.039454</v>
+        <v>0.08494933333333334</v>
       </c>
       <c r="H4">
-        <v>0.118362</v>
+        <v>0.254848</v>
       </c>
       <c r="I4">
-        <v>0.02794191315301551</v>
+        <v>0.05304596770467038</v>
       </c>
       <c r="J4">
-        <v>0.02794191315301551</v>
+        <v>0.05304596770467038</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.001065008124666667</v>
+        <v>0.002293093987555556</v>
       </c>
       <c r="R4">
-        <v>0.009585073122</v>
+        <v>0.020637845888</v>
       </c>
       <c r="S4">
-        <v>0.02794191315301551</v>
+        <v>0.05304596770467038</v>
       </c>
       <c r="T4">
-        <v>0.02794191315301551</v>
+        <v>0.05304596770467038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4019793333333333</v>
+        <v>0.434152</v>
       </c>
       <c r="H5">
-        <v>1.205938</v>
+        <v>1.302456</v>
       </c>
       <c r="I5">
-        <v>0.2846877787120969</v>
+        <v>0.2711029276774947</v>
       </c>
       <c r="J5">
-        <v>0.284687778712097</v>
+        <v>0.2711029276774947</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.01085089613088889</v>
+        <v>0.01171935437066667</v>
       </c>
       <c r="R5">
-        <v>0.09765806517799999</v>
+        <v>0.105474189336</v>
       </c>
       <c r="S5">
-        <v>0.2846877787120969</v>
+        <v>0.2711029276774947</v>
       </c>
       <c r="T5">
-        <v>0.284687778712097</v>
+        <v>0.2711029276774947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1300063333333333</v>
+        <v>0.2289143333333333</v>
       </c>
       <c r="H6">
-        <v>0.390019</v>
+        <v>0.686743</v>
       </c>
       <c r="I6">
-        <v>0.09207243056070323</v>
+        <v>0.1429438214127968</v>
       </c>
       <c r="J6">
-        <v>0.09207243056070324</v>
+        <v>0.1429438214127969</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.003509347626555556</v>
+        <v>0.006179237209222222</v>
       </c>
       <c r="R6">
-        <v>0.031584128639</v>
+        <v>0.055613134883</v>
       </c>
       <c r="S6">
-        <v>0.09207243056070323</v>
+        <v>0.1429438214127968</v>
       </c>
       <c r="T6">
-        <v>0.09207243056070324</v>
+        <v>0.1429438214127969</v>
       </c>
     </row>
   </sheetData>
